--- a/public/assets/uploads/Uploads/physical_stock/physicalstock_data.xlsx
+++ b/public/assets/uploads/Uploads/physical_stock/physicalstock_data.xlsx
@@ -39,16 +39,19 @@
     <t>box</t>
   </si>
   <si>
+    <t>kg/ltr</t>
+  </si>
+  <si>
     <t>B3</t>
-  </si>
-  <si>
-    <t>kg/ltr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -81,7 +84,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,15 +382,16 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -409,7 +413,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>42522</v>
+        <v>42529</v>
       </c>
       <c r="B2">
         <v>58515696</v>
@@ -418,7 +422,7 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -426,7 +430,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>42522</v>
+        <v>42530</v>
       </c>
       <c r="B3">
         <v>58515696</v>
@@ -435,27 +439,27 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>42522</v>
+        <v>42531</v>
       </c>
       <c r="B4">
         <v>58551281</v>
       </c>
       <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>99</v>
+      </c>
+      <c r="E4" t="s">
         <v>7</v>
-      </c>
-      <c r="D4">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/uploads/Uploads/physical_stock/physicalstock_data.xlsx
+++ b/public/assets/uploads/Uploads/physical_stock/physicalstock_data.xlsx
@@ -7,9 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="physicalstock_data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -382,7 +380,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -466,28 +464,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/public/assets/uploads/Uploads/physical_stock/physicalstock_data.xlsx
+++ b/public/assets/uploads/Uploads/physical_stock/physicalstock_data.xlsx
@@ -79,10 +79,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,83 +381,84 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>42529</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>58515696</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>99</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>42530</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>58515696</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>99</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>42531</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>58551281</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>99</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
     </row>

--- a/public/assets/uploads/Uploads/physical_stock/physicalstock_data.xlsx
+++ b/public/assets/uploads/Uploads/physical_stock/physicalstock_data.xlsx
@@ -16,9 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
-    <t>Month</t>
-  </si>
-  <si>
     <t>Product SKU Code</t>
   </si>
   <si>
@@ -41,14 +38,18 @@
   </si>
   <si>
     <t>B3</t>
+  </si>
+  <si>
+    <t>Month Year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$-409]mmmm/yy;@"/>
+    <numFmt numFmtId="166" formatCode="mmm/yyyy"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -79,11 +80,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -391,76 +402,124 @@
     <col min="3" max="3" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="3">
-        <v>42529</v>
+      <c r="A2" s="5">
+        <v>42675</v>
       </c>
       <c r="B2" s="2">
         <v>58515696</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2">
+        <v>112</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2">
-        <v>99</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="3">
-        <v>42530</v>
+      <c r="A3" s="5">
+        <v>42522</v>
       </c>
       <c r="B3" s="2">
         <v>58515696</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="3">
-        <v>42531</v>
+      <c r="A4" s="5">
+        <v>42401</v>
       </c>
       <c r="B4" s="2">
         <v>58551281</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="4"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="4"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/assets/uploads/Uploads/physical_stock/physicalstock_data.xlsx
+++ b/public/assets/uploads/Uploads/physical_stock/physicalstock_data.xlsx
@@ -49,7 +49,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]mmmm/yy;@"/>
-    <numFmt numFmtId="166" formatCode="mmm/yyyy"/>
+    <numFmt numFmtId="165" formatCode="mmm/yyyy"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -92,7 +92,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -391,9 +391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>

--- a/public/assets/uploads/Uploads/physical_stock/physicalstock_data.xlsx
+++ b/public/assets/uploads/Uploads/physical_stock/physicalstock_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Product SKU Code</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>kg/ltr</t>
-  </si>
-  <si>
-    <t>B3</t>
   </si>
   <si>
     <t>Month Year</t>
@@ -47,9 +44,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="[$-409]mmmm/yy;@"/>
-    <numFmt numFmtId="165" formatCode="mmm/yyyy"/>
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="mmm\-yyyy"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -80,19 +76,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -389,13 +382,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
@@ -405,7 +400,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -421,7 +416,7 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>42675</v>
       </c>
       <c r="B2" s="2">
@@ -430,15 +425,12 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2">
-        <v>112</v>
-      </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>42522</v>
       </c>
       <c r="B3" s="2">
@@ -455,69 +447,18 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>42401</v>
       </c>
       <c r="B4" s="2">
         <v>58551281</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D4" s="2">
         <v>117</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="5"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="5"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="5"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="5"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="5"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="5"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="5"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="4"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="4"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="4"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="4"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="4"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="4"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="4"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/assets/uploads/Uploads/physical_stock/physicalstock_data.xlsx
+++ b/public/assets/uploads/Uploads/physical_stock/physicalstock_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Product SKU Code</t>
   </si>
@@ -28,15 +28,6 @@
     <t>Unit</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>kg/ltr</t>
-  </si>
-  <si>
     <t>Month Year</t>
   </si>
 </sst>
@@ -45,7 +36,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="mmm\-yyyy"/>
+    <numFmt numFmtId="164" formatCode="mmm\-yyyy"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -82,10 +73,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -382,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -400,7 +391,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -415,51 +406,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="4">
-        <v>42675</v>
-      </c>
-      <c r="B2" s="2">
-        <v>58515696</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4">
-        <v>42522</v>
-      </c>
-      <c r="B3" s="2">
-        <v>58515696</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2">
-        <v>115</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="4">
-        <v>42401</v>
-      </c>
-      <c r="B4" s="2">
-        <v>58551281</v>
-      </c>
-      <c r="D4" s="2">
-        <v>117</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
